--- a/04-arquivos-excel/aula-validacao.xlsx
+++ b/04-arquivos-excel/aula-validacao.xlsx
@@ -1,36 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\04 Mais tópicos de edição e formatação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\04-arquivos-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C41DE-D4E3-422F-89E7-26174EDA96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="4" r:id="rId1"/>
     <sheet name="Cadastro" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Bruno Arantes</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <r>
       <t>G</t>
@@ -123,11 +135,23 @@
   <si>
     <t>COMBUSTÍVEL</t>
   </si>
+  <si>
+    <t>GDG-3387</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Civic EDX</t>
+  </si>
+  <si>
+    <t>Etanol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +535,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,7 +570,7 @@
         <xdr:cNvPr id="2" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44425CF-D459-46F4-AEE1-C2BFC99935C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44425CF-D459-46F4-AEE1-C2BFC99935C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -626,7 +650,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A92B70D-1891-489A-AD71-200252118BEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A92B70D-1891-489A-AD71-200252118BEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,7 +727,7 @@
         <xdr:cNvPr id="4" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6F8A99-73EA-47E7-866F-232CE726F0BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6F8A99-73EA-47E7-866F-232CE726F0BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +804,7 @@
         <xdr:cNvPr id="5" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DD6E4B-3605-4BC0-BA76-5BF929399E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DD6E4B-3605-4BC0-BA76-5BF929399E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +881,7 @@
         <xdr:cNvPr id="6" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59861F94-AF37-4415-989D-75866B16F2B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59861F94-AF37-4415-989D-75866B16F2B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,7 +964,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F06A00D-B7F6-4EF2-A9C5-5628A837B16C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F06A00D-B7F6-4EF2-A9C5-5628A837B16C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1041,7 @@
         <xdr:cNvPr id="3" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67EF430-9BAC-4DC8-8401-0C98D9096FE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67EF430-9BAC-4DC8-8401-0C98D9096FE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1120,7 @@
         <xdr:cNvPr id="4" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E7EC31-1DDE-418E-BD9A-1C7CA40496C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E7EC31-1DDE-418E-BD9A-1C7CA40496C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1197,7 @@
         <xdr:cNvPr id="5" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01964716-4EAB-46C6-96AD-25F64AFD83B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01964716-4EAB-46C6-96AD-25F64AFD83B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1274,7 @@
         <xdr:cNvPr id="6" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B93A7A8-2556-40E8-9001-607F1CA08116}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B93A7A8-2556-40E8-9001-607F1CA08116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,20 +1632,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="1" customWidth="1"/>
     <col min="2" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="16" max="16" width="2.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1657,7 +1681,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="2:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1673,7 +1697,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1689,7 +1713,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1705,7 +1729,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1721,7 +1745,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1737,7 +1761,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1753,7 +1777,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1769,7 +1793,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1785,7 +1809,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1801,7 +1825,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1817,7 +1841,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1833,7 +1857,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1849,7 +1873,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1865,7 +1889,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1881,7 +1905,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1897,7 +1921,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1913,7 +1937,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1929,7 +1953,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1945,7 +1969,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1961,7 +1985,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1977,7 +2001,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1993,7 +2017,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2009,7 +2033,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2025,7 +2049,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2041,7 +2065,7 @@
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2057,7 +2081,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2073,7 +2097,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="2:15" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:15" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2081,14 +2105,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
@@ -2098,11 +2124,11 @@
     <col min="9" max="13" width="13" style="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="1" customWidth="1"/>
     <col min="15" max="15" width="3" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="16" max="16" width="2.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2138,7 +2164,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="2:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2154,7 +2180,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="C4" s="30" t="s">
         <v>1</v>
@@ -2182,14 +2208,26 @@
       <c r="N4" s="16"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="34">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -2198,7 +2236,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="26"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="16"/>
@@ -2214,7 +2252,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="26"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="16"/>
@@ -2230,7 +2268,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="26"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="16"/>
@@ -2246,7 +2284,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="26"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="16"/>
@@ -2262,7 +2300,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="16"/>
@@ -2278,7 +2316,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="26"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="16"/>
@@ -2294,7 +2332,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="26"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="16"/>
@@ -2310,7 +2348,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="26"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="16"/>
@@ -2326,7 +2364,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="26"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="16"/>
@@ -2342,7 +2380,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="26"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="16"/>
@@ -2358,7 +2396,7 @@
       <c r="N15" s="16"/>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="16"/>
@@ -2374,7 +2412,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="26"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="16"/>
@@ -2390,7 +2428,7 @@
       <c r="N17" s="16"/>
       <c r="O17" s="26"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="16"/>
@@ -2406,7 +2444,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="26"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="16"/>
@@ -2422,7 +2460,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="16"/>
@@ -2438,7 +2476,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="26"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="16"/>
@@ -2454,7 +2492,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="16"/>
@@ -2470,7 +2508,7 @@
       <c r="N22" s="16"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="16"/>
@@ -2486,7 +2524,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="16"/>
@@ -2502,7 +2540,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="26"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="16"/>
@@ -2518,7 +2556,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="16"/>
@@ -2534,7 +2572,7 @@
       <c r="N26" s="16"/>
       <c r="O26" s="26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
@@ -2550,7 +2588,7 @@
       <c r="N27" s="16"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
@@ -2566,9 +2604,16 @@
       <c r="N28" s="28"/>
       <c r="O28" s="29"/>
     </row>
-    <row r="29" spans="2:15" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:15" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor inválido!" error="O modelo do veiculo deve possuir no minimo 5 caracteres." sqref="F5:F27" xr:uid="{C27B46D7-5196-4C98-983B-F22474E7C030}">
+      <formula1>5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor inválido" error="Favor escolher um valor válido na caixa de seleção" sqref="H5:H27" xr:uid="{A809DA61-3FB9-4156-9D3F-2B8E43063351}">
+      <formula1>"Diesel,Etanol,Gasolina,GNV,Flex"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
